--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15645" windowHeight="5460"/>
+    <workbookView windowWidth="23895" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>时间</t>
   </si>
@@ -77,26 +77,26 @@
     <t>中</t>
   </si>
   <si>
+    <t>react+redux学习</t>
+  </si>
+  <si>
     <t>低</t>
   </si>
   <si>
-    <t>react+redux学习</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>react+redux学习</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>项目布局研究</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,32 +105,345 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -138,19 +451,308 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -441,26 +1043,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="24.875" customWidth="1"/>
     <col min="3" max="3" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +1079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>42997</v>
       </c>
@@ -491,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -502,76 +1104,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
       <c r="D4" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>42998</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>42999</v>
       </c>
       <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>43000</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2"/>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -92,9 +92,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -105,6 +105,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -112,9 +158,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,8 +202,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,45 +226,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -197,51 +242,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -258,187 +258,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,30 +449,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -506,22 +482,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,6 +515,35 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -555,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,133 +567,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,10 +1049,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1147,7 +1147,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>43000</v>
       </c>
@@ -1157,13 +1157,30 @@
       <c r="C10" t="s">
         <v>6</v>
       </c>
+      <c r="D10" s="2">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:4">
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>42980</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -92,9 +92,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -105,24 +105,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,6 +214,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -152,96 +228,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -258,6 +258,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -270,7 +342,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,31 +390,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,127 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,6 +449,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -482,17 +506,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,35 +544,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -555,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,133 +567,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,12 +1052,12 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="24.875" customWidth="1"/>
     <col min="3" max="3" width="26.875" customWidth="1"/>
   </cols>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>42980</v>
+        <v>43003</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>时间</t>
   </si>
@@ -85,16 +85,19 @@
   <si>
     <t>项目布局研究</t>
   </si>
+  <si>
+    <t>练手</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -106,6 +109,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -114,7 +124,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,7 +169,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,39 +191,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,59 +213,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -258,187 +261,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,6 +452,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -467,26 +503,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,30 +547,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -555,10 +558,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,133 +570,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,10 +1052,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1172,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>43003</v>
       </c>
@@ -1180,6 +1183,20 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>43004</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
         <v>6</v>
       </c>
     </row>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -94,9 +94,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -109,32 +109,94 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,8 +208,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,91 +223,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -261,187 +261,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,39 +452,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -503,17 +470,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,6 +523,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -558,10 +558,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,133 +570,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,10 +1052,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>43004</v>
       </c>
@@ -1197,6 +1197,20 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>43005</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
         <v>6</v>
       </c>
     </row>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>时间</t>
   </si>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017／9.29</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -110,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +139,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -153,15 +173,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -461,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -636,10 +660,25 @@
       <c r="C19" t="s">
         <v>15</v>
       </c>
+      <c r="D19" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>时间</t>
   </si>
@@ -107,6 +107,10 @@
   </si>
   <si>
     <t>2017／9.29</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017／9.30</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -173,8 +177,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -183,9 +193,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -485,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -672,6 +688,20 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
         <v>15</v>
       </c>
     </row>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>时间</t>
   </si>
@@ -92,10 +92,6 @@
   </si>
   <si>
     <t>练手</t>
-  </si>
-  <si>
-    <t>2017／9.28</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>练手</t>
@@ -106,11 +102,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2017／9.29</t>
+    <t>项目开始准备</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2017／9.30</t>
+    <t>高</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -177,8 +173,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -193,15 +191,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -667,42 +667,70 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="A19" s="1">
+        <v>43006</v>
+      </c>
+      <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
       </c>
       <c r="D19" s="2">
         <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>16</v>
+      <c r="A21" s="1">
+        <v>43007</v>
       </c>
       <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
         <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
       </c>
       <c r="D21" s="2">
         <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>17</v>
+      <c r="A23" s="1">
+        <v>43008</v>
       </c>
       <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>43019</v>
+      </c>
+      <c r="B25" t="s">
         <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>43020</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>时间</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛环境安装</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛需求研究</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -173,8 +185,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -191,17 +205,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -731,6 +747,28 @@
       </c>
       <c r="C27" t="s">
         <v>16</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>43021</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>时间</t>
   </si>
@@ -119,6 +119,14 @@
   </si>
   <si>
     <t>中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛需求修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -517,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -762,6 +770,9 @@
       <c r="C29" t="s">
         <v>16</v>
       </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" t="s">
@@ -769,6 +780,20 @@
       </c>
       <c r="C30" t="s">
         <v>19</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>43024</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>时间</t>
   </si>
@@ -123,6 +123,14 @@
   </si>
   <si>
     <t>奶牛需求修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛第二个需求</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -525,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -794,6 +802,20 @@
       </c>
       <c r="C32" t="s">
         <v>21</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>43025</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>时间</t>
   </si>
@@ -135,6 +135,22 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛修改提交测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>校园网后台接口调试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -533,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -807,7 +823,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>43025</v>
       </c>
@@ -816,6 +832,28 @@
       </c>
       <c r="C34" t="s">
         <v>23</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>43026</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23900" windowHeight="11380"/>
+    <workbookView xWindow="1920" yWindow="1100" windowWidth="23900" windowHeight="11380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>时间</t>
   </si>
@@ -146,7 +146,22 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>校园网后台接口调试</t>
+  </si>
+  <si>
+    <t>校园网后台接口调试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛提交环境</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -549,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -847,13 +862,38 @@
       <c r="C36" t="s">
         <v>25</v>
       </c>
+      <c r="D36" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
         <v>26</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>43027</v>
+      </c>
+      <c r="B39" t="s">
         <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>时间</t>
   </si>
@@ -166,6 +166,14 @@
   </si>
   <si>
     <t>中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -564,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -887,6 +895,9 @@
       <c r="C39" t="s">
         <v>29</v>
       </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
       <c r="B40" t="s">
@@ -894,6 +905,20 @@
       </c>
       <c r="C40" t="s">
         <v>31</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>43028</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>时间</t>
   </si>
@@ -170,6 +170,14 @@
   </si>
   <si>
     <t>奶牛修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛需求修改</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -572,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -919,6 +927,20 @@
       </c>
       <c r="C42" t="s">
         <v>33</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>43031</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>时间</t>
   </si>
@@ -178,6 +178,18 @@
   </si>
   <si>
     <t>奶牛需求修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛自测</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -189,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +242,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -248,7 +268,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -262,25 +282,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -580,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -941,6 +966,28 @@
       </c>
       <c r="C44" t="s">
         <v>35</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>43032</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>时间</t>
   </si>
@@ -194,6 +194,18 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛提交测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>校园网后台测试</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -605,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -981,6 +993,9 @@
       <c r="C46" t="s">
         <v>36</v>
       </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="3" t="s">
@@ -988,6 +1003,28 @@
       </c>
       <c r="C47" t="s">
         <v>38</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>43033</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>时间</t>
   </si>
@@ -206,6 +206,18 @@
   </si>
   <si>
     <t>校园网后台测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/20/26</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习javascript</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -617,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1008,7 +1020,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>43033</v>
       </c>
@@ -1018,13 +1030,30 @@
       <c r="C49" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="B50" t="s">
         <v>41</v>
       </c>
       <c r="C50" t="s">
         <v>40</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>时间</t>
   </si>
@@ -209,11 +209,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2017/20/26</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>学习javascript</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -629,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1046,14 +1050,28 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" t="s">
+      <c r="A52" s="1">
+        <v>43034</v>
+      </c>
+      <c r="B52" t="s">
         <v>42</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>43</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>43035</v>
+      </c>
+      <c r="B54" t="s">
         <v>44</v>
+      </c>
+      <c r="C54" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>时间</t>
   </si>
@@ -222,6 +222,18 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>校园网测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -633,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1072,6 +1084,28 @@
       </c>
       <c r="C54" t="s">
         <v>45</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>43038</v>
+      </c>
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>时间</t>
   </si>
@@ -234,6 +234,14 @@
   </si>
   <si>
     <t>学习</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习总结</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -645,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1099,6 +1107,9 @@
       <c r="C56" t="s">
         <v>47</v>
       </c>
+      <c r="D56" s="2">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
       <c r="B57" t="s">
@@ -1106,6 +1117,20 @@
       </c>
       <c r="C57" t="s">
         <v>47</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>43039</v>
+      </c>
+      <c r="B59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>时间</t>
   </si>
@@ -242,6 +242,18 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>校园网bug修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -653,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1131,6 +1143,28 @@
       </c>
       <c r="C59" t="s">
         <v>50</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>43040</v>
+      </c>
+      <c r="B61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="B62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>时间</t>
   </si>
@@ -254,6 +254,22 @@
   </si>
   <si>
     <t>学习</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高德页面样式修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>校园网测试修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -665,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1158,6 +1174,9 @@
       <c r="C61" t="s">
         <v>52</v>
       </c>
+      <c r="D61" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
       <c r="B62" t="s">
@@ -1165,6 +1184,28 @@
       </c>
       <c r="C62" t="s">
         <v>52</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>43041</v>
+      </c>
+      <c r="B64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>时间</t>
   </si>
@@ -266,6 +266,30 @@
   </si>
   <si>
     <t>校园网测试修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶牛需求修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue页面编写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>校园网测试bug修改</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -681,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1199,13 +1223,46 @@
       <c r="C64" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="65" spans="2:3">
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="B65" t="s">
         <v>56</v>
       </c>
       <c r="C65" t="s">
         <v>57</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>43042</v>
+      </c>
+      <c r="B67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="B68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="B69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>时间</t>
   </si>
@@ -290,6 +290,14 @@
   </si>
   <si>
     <t>校园网测试bug修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue页面编写</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -705,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1248,6 +1256,9 @@
       <c r="C67" t="s">
         <v>59</v>
       </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
       <c r="B68" t="s">
@@ -1256,6 +1267,9 @@
       <c r="C68" t="s">
         <v>61</v>
       </c>
+      <c r="D68" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
       <c r="B69" t="s">
@@ -1263,6 +1277,20 @@
       </c>
       <c r="C69" t="s">
         <v>63</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>43045</v>
+      </c>
+      <c r="B71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1100" windowWidth="23900" windowHeight="11380"/>
+    <workbookView windowWidth="23895" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -53,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>时间</t>
   </si>
@@ -94,222 +89,83 @@
     <t>练手</t>
   </si>
   <si>
-    <t>练手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>项目开始准备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>奶牛环境安装</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>奶牛需求研究</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>奶牛需求修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>奶牛第二个需求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>奶牛修改提交测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>校园网后台接口调试</t>
   </si>
   <si>
-    <t>校园网后台接口调试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>奶牛提交环境</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>奶牛修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶牛需求修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>奶牛自测</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>奶牛提交测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>校园网后台测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>学习javascript</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>继续学习</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>校园网测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>学习</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>学习总结</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>校园网bug修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>高德页面样式修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>校园网测试修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶牛需求修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>vue页面编写</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>校园网测试bug修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vue页面编写</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,56 +174,336 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -375,48 +511,301 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="15">
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="47">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="注释" xfId="11" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
+    <cellStyle name="标题" xfId="15" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
+    <cellStyle name="输出" xfId="22" builtinId="21"/>
+    <cellStyle name="计算" xfId="23" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
+    <cellStyle name="汇总" xfId="28" builtinId="25"/>
+    <cellStyle name="好" xfId="29" builtinId="26"/>
+    <cellStyle name="适中" xfId="30" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -707,23 +1096,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.1666666666667" customWidth="1"/>
+    <col min="2" max="2" width="24.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="26.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -743,7 +1132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>42997</v>
       </c>
@@ -757,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -768,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -779,11 +1168,11 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>42998</v>
       </c>
@@ -797,7 +1186,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>42999</v>
       </c>
@@ -811,7 +1200,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>43000</v>
       </c>
@@ -825,7 +1214,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="2:4">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -836,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>43003</v>
       </c>
@@ -850,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>43004</v>
       </c>
@@ -883,10 +1272,10 @@
         <v>43006</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2">
         <v>0.4</v>
@@ -897,10 +1286,10 @@
         <v>43007</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D21" s="2">
         <v>0.6</v>
@@ -911,10 +1300,10 @@
         <v>43008</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -925,10 +1314,10 @@
         <v>43019</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2">
         <v>0.1</v>
@@ -939,10 +1328,10 @@
         <v>43020</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D27" s="2">
         <v>0.2</v>
@@ -953,21 +1342,21 @@
         <v>43021</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D30" s="2">
         <v>0.2</v>
@@ -978,10 +1367,10 @@
         <v>43024</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D32" s="2">
         <v>0.5</v>
@@ -992,10 +1381,10 @@
         <v>43025</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D34" s="2">
         <v>0.8</v>
@@ -1006,21 +1395,21 @@
         <v>43026</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D36" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2">
         <v>0.3</v>
@@ -1031,21 +1420,21 @@
         <v>43027</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2">
         <v>0.5</v>
@@ -1056,10 +1445,10 @@
         <v>43028</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D42" s="2">
         <v>0.5</v>
@@ -1070,10 +1459,10 @@
         <v>43031</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D44" s="2">
         <v>0.8</v>
@@ -1084,21 +1473,21 @@
         <v>43032</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="2:4">
       <c r="B47" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D47" s="2">
         <v>0.5</v>
@@ -1109,21 +1498,21 @@
         <v>43033</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D49" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="2:4">
       <c r="B50" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D50" s="2">
         <v>0.2</v>
@@ -1134,10 +1523,10 @@
         <v>43034</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D52" s="2">
         <v>0.2</v>
@@ -1148,10 +1537,10 @@
         <v>43035</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D54" s="2">
         <v>0.3</v>
@@ -1162,21 +1551,21 @@
         <v>43038</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D56" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="2:4">
       <c r="B57" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D57" s="2">
         <v>0.1</v>
@@ -1187,10 +1576,10 @@
         <v>43039</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D59" s="2">
         <v>0.15</v>
@@ -1201,21 +1590,21 @@
         <v>43040</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D61" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="2:4">
       <c r="B62" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D62" s="2">
         <v>0.3</v>
@@ -1226,21 +1615,21 @@
         <v>43041</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D64" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="2:4">
       <c r="B65" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C65" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D65" s="2">
         <v>1</v>
@@ -1251,32 +1640,32 @@
         <v>43042</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D67" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="2:4">
       <c r="B68" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C68" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="D68" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="2:4">
       <c r="B69" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C69" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D69" s="2">
         <v>1</v>
@@ -1287,57 +1676,62 @@
         <v>43045</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C71" t="s">
-        <v>65</v>
+        <v>6</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>43046</v>
+      </c>
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -161,11 +161,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +178,21 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,6 +211,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -204,6 +226,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -220,6 +264,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -228,43 +302,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,14 +312,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,22 +324,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -318,6 +334,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -330,7 +370,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,19 +394,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,6 +442,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -402,30 +490,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -445,60 +515,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,6 +525,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -536,15 +567,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -556,30 +578,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,6 +599,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -609,16 +616,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,127 +643,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -757,7 +779,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -768,43 +790,45 @@
     <cellStyle name="差" xfId="7" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="注释" xfId="11" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
-    <cellStyle name="标题" xfId="15" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
-    <cellStyle name="输出" xfId="22" builtinId="21"/>
-    <cellStyle name="计算" xfId="23" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
-    <cellStyle name="汇总" xfId="28" builtinId="25"/>
-    <cellStyle name="好" xfId="29" builtinId="26"/>
-    <cellStyle name="适中" xfId="30" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1102,10 +1126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1685,7 +1709,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>43046</v>
       </c>
@@ -1693,6 +1717,28 @@
         <v>33</v>
       </c>
       <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>43047</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" t="s">
         <v>6</v>
       </c>
     </row>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -161,9 +161,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -178,6 +178,67 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,62 +258,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,38 +290,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,6 +334,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -346,72 +400,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -430,61 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,60 +525,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -601,7 +547,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,6 +596,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -631,10 +631,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,7 +643,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,124 +652,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,10 +1126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1723,7 +1723,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>43047</v>
       </c>
@@ -1733,12 +1733,37 @@
       <c r="C75" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="2:3">
+      <c r="D75" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
       <c r="B76" t="s">
         <v>33</v>
       </c>
       <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>43048</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" t="s">
         <v>6</v>
       </c>
     </row>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>时间</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>校园网测试bug修改</t>
+  </si>
+  <si>
+    <t>奶牛需求修改及测试</t>
   </si>
 </sst>
 </file>
@@ -161,9 +164,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1126,10 +1129,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1748,7 +1751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>43048</v>
       </c>
@@ -1758,12 +1761,45 @@
       <c r="C78" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="2:3">
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
       <c r="B79" t="s">
         <v>28</v>
       </c>
       <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>43049</v>
+      </c>
+      <c r="B81" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" t="s">
         <v>6</v>
       </c>
     </row>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -163,10 +163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1132,7 +1132,7 @@
   <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -163,10 +163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1129,10 +1129,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79"/>
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1776,7 +1776,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>43049</v>
       </c>
@@ -1786,20 +1786,48 @@
       <c r="C81" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="2:3">
+      <c r="D81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
       <c r="B82" t="s">
         <v>30</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="2:3">
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
       <c r="B83" t="s">
         <v>28</v>
       </c>
       <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>43052</v>
+      </c>
+      <c r="B85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" t="s">
         <v>6</v>
       </c>
     </row>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>时间</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>奶牛需求修改及测试</t>
+  </si>
+  <si>
+    <t>奶牛测试</t>
   </si>
 </sst>
 </file>
@@ -184,8 +187,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,41 +291,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,58 +325,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -337,6 +340,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -367,19 +460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,90 +497,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,6 +531,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -555,36 +597,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -606,25 +618,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,133 +649,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,10 +1132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1812,7 +1815,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>43052</v>
       </c>
@@ -1822,12 +1825,37 @@
       <c r="C85" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="2:3">
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
       <c r="B86" t="s">
         <v>28</v>
       </c>
       <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>43053</v>
+      </c>
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" t="s">
         <v>6</v>
       </c>
     </row>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -166,10 +166,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -182,6 +182,106 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -196,43 +296,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -253,73 +316,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -340,187 +340,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,6 +531,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -545,6 +584,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,75 +631,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,133 +649,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1132,10 +1132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1840,7 +1840,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>43053</v>
       </c>
@@ -1850,12 +1850,29 @@
       <c r="C88" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="89" spans="2:3">
+      <c r="D88" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
       <c r="B89" t="s">
         <v>36</v>
       </c>
       <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>43054</v>
+      </c>
+      <c r="B91" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" t="s">
         <v>6</v>
       </c>
     </row>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>时间</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>奶牛测试</t>
+  </si>
+  <si>
+    <t>vue研究学习</t>
   </si>
 </sst>
 </file>
@@ -166,10 +169,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -187,8 +190,129 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,133 +327,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -340,6 +343,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -370,18 +469,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -406,13 +493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,60 +505,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -497,30 +524,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,21 +534,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -590,17 +578,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -631,16 +608,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,133 +652,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1132,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1865,7 +1868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>43054</v>
       </c>
@@ -1873,6 +1876,20 @@
         <v>28</v>
       </c>
       <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>43055</v>
+      </c>
+      <c r="B93" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" t="s">
         <v>6</v>
       </c>
     </row>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>时间</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>vue研究学习</t>
+  </si>
+  <si>
+    <t>redux学习</t>
   </si>
 </sst>
 </file>
@@ -170,8 +173,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -190,6 +193,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -205,6 +223,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -223,9 +279,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,21 +302,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,36 +317,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,22 +336,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -343,6 +346,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -355,30 +430,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -397,36 +496,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -434,72 +503,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,6 +537,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -578,6 +596,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -608,177 +637,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,10 +1138,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1882,7 +1885,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>43055</v>
       </c>
@@ -1890,6 +1893,20 @@
         <v>37</v>
       </c>
       <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>43056</v>
+      </c>
+      <c r="B95" t="s">
+        <v>38</v>
+      </c>
+      <c r="C95" t="s">
         <v>6</v>
       </c>
     </row>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>时间</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>redux学习</t>
+  </si>
+  <si>
+    <t>奶牛需求</t>
   </si>
 </sst>
 </file>
@@ -173,8 +176,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -194,7 +197,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,133 +333,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -346,6 +349,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -376,60 +523,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -437,96 +530,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,45 +540,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -590,26 +554,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,16 +581,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,133 +658,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,10 +1141,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1899,7 +1902,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>43056</v>
       </c>
@@ -1907,6 +1910,28 @@
         <v>38</v>
       </c>
       <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>43059</v>
+      </c>
+      <c r="B97" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" t="s">
+        <v>38</v>
+      </c>
+      <c r="C98" t="s">
         <v>6</v>
       </c>
     </row>

--- a/交流管理/项目日报/宋雪-每日要做的事.xlsx
+++ b/交流管理/项目日报/宋雪-每日要做的事.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>时间</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>奶牛需求</t>
+  </si>
+  <si>
+    <t>vuex学习</t>
   </si>
 </sst>
 </file>
@@ -176,9 +179,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -196,10 +199,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,28 +239,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,6 +269,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,35 +311,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,14 +342,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -355,30 +358,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -397,36 +430,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -439,6 +442,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -518,18 +533,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,6 +543,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -584,8 +596,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -629,27 +643,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,133 +661,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1141,10 +1144,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1916,7 +1919,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>43059</v>
       </c>
@@ -1926,12 +1929,37 @@
       <c r="C97" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="2:3">
+      <c r="D97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
       <c r="B98" t="s">
         <v>38</v>
       </c>
       <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>43060</v>
+      </c>
+      <c r="B100" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" t="s">
         <v>6</v>
       </c>
     </row>
